--- a/Assets/Originals/Excels/System/SystemMessage.xlsx
+++ b/Assets/Originals/Excels/System/SystemMessage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\001.MyGameProductionBackUp\001.Unity\Mumei\GitFolders\Mumei\Assets\Originals\Excels\System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0451B3-430E-4ED4-B101-2F20237B892C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949ED091-897C-451A-BF2C-CB197123021E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,10 +45,6 @@
     <t>message</t>
   </si>
   <si>
-    <t>それでは、今からあなたの名前をここで…</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>破棄します</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -82,6 +78,10 @@
     <rPh sb="0" eb="1">
       <t>オシ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それでは　今からあなたの名前をここで…</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -410,7 +410,7 @@
   <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -441,7 +441,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -449,7 +449,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -465,7 +465,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -473,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -481,7 +481,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/Assets/Originals/Excels/System/SystemMessage.xlsx
+++ b/Assets/Originals/Excels/System/SystemMessage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\001.MyGameProductionBackUp\001.Unity\Mumei\GitFolders\Mumei\Assets\Originals\Excels\System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949ED091-897C-451A-BF2C-CB197123021E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACDCBD9-04FB-4D67-A984-06D94BC0AE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>number</t>
     <phoneticPr fontId="1"/>
@@ -82,6 +82,46 @@
   </si>
   <si>
     <t>それでは　今からあなたの名前をここで…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアルを開始します</t>
+  </si>
+  <si>
+    <t>チュートリアルを終了します</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左クリック…ドキュメント入手
+入手したらスペースキーを押してください</t>
+    <rPh sb="15" eb="17">
+      <t>ニュウシュ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pキーでポーズ画面を開く→「アイテム確認」
+→「ドキュメント」→「チュートリアル」
+入手したらスペースキーを押してください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左クリック…ミステリーアイテム入手
+入手したらスペースキーを押してください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pキーでポーズ画面を開く→「アイテム確認」
+→「ドキュメント」→「ハンマー」または 「ロープ」
+入手したらスペースキーを押してください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左クリック…オブジェクトに触れる
+ドキュメントの内容と深い関係があるミステリーアイテムを左クリックで選択</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -125,8 +165,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -410,10 +453,13 @@
   <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="73.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -493,108 +539,129 @@
       <c r="A11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="37.5">
       <c r="A12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="56.25">
       <c r="A13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="37.5">
       <c r="A14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="56.25">
       <c r="A15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="37.5">
       <c r="A16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>30</v>
       </c>

--- a/Assets/Originals/Excels/System/SystemMessage.xlsx
+++ b/Assets/Originals/Excels/System/SystemMessage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\001.MyGameProductionBackUp\001.Unity\Mumei\GitFolders\Mumei\Assets\Originals\Excels\System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACDCBD9-04FB-4D67-A984-06D94BC0AE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43E8A64-4ADD-4150-830D-F5367315C82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,10 +88,6 @@
     <t>チュートリアルを開始します</t>
   </si>
   <si>
-    <t>チュートリアルを終了します</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>左クリック…ドキュメント入手
 入手したらスペースキーを押してください</t>
     <rPh sb="15" eb="17">
@@ -121,7 +117,14 @@
   </si>
   <si>
     <t>左クリック…オブジェクトに触れる
-ドキュメントの内容と深い関係があるミステリーアイテムを左クリックで選択</t>
+ミステリーアイテムの画像を左クリックで選択</t>
+    <rPh sb="27" eb="29">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　チュートリアルを終了します</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -452,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -548,7 +551,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="56.25">
@@ -556,7 +559,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="37.5">
@@ -564,7 +567,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="56.25">
@@ -572,7 +575,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="37.5">
@@ -580,7 +583,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -588,7 +591,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2">

--- a/Assets/Originals/Excels/System/SystemMessage.xlsx
+++ b/Assets/Originals/Excels/System/SystemMessage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\001.MyGameProductionBackUp\001.Unity\Mumei\GitFolders\Mumei\Assets\Originals\Excels\System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43E8A64-4ADD-4150-830D-F5367315C82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AC12F1-FA77-434C-A095-5F36F10A5419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,19 +61,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>10文字以内で入力してください</t>
-    <rPh sb="2" eb="4">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イナイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>教えていただきありがとうございます</t>
     <rPh sb="0" eb="1">
       <t>オシ</t>
@@ -125,6 +112,22 @@
   </si>
   <si>
     <t>　チュートリアルを終了します</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2文字以上10文字以内で入力してください</t>
+    <rPh sb="1" eb="5">
+      <t>モジイジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -455,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -506,7 +509,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -514,7 +517,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -522,7 +525,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -543,7 +546,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="37.5">
@@ -551,7 +554,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="56.25">
@@ -559,7 +562,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="37.5">
@@ -567,7 +570,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="56.25">
@@ -575,7 +578,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="37.5">
@@ -583,7 +586,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -591,7 +594,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2">

--- a/Assets/Originals/Excels/System/SystemMessage.xlsx
+++ b/Assets/Originals/Excels/System/SystemMessage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\001.MyGameProductionBackUp\001.Unity\Mumei\GitFolders\Mumei\Assets\Originals\Excels\System\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyGameProduction\Mumei(No Name)\Assets\Originals\Excels\System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AC12F1-FA77-434C-A095-5F36F10A5419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128C5F81-7331-4EFD-A063-08279AFC5ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="systemMessage" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -93,12 +82,6 @@
   </si>
   <si>
     <t>左クリック…ミステリーアイテム入手
-入手したらスペースキーを押してください</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Pキーでポーズ画面を開く→「アイテム確認」
-→「ドキュメント」→「ハンマー」または 「ロープ」
 入手したらスペースキーを押してください</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -128,6 +111,12 @@
     <rPh sb="12" eb="14">
       <t>ニュウリョク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pキーでポーズ画面を開く→「アイテム確認」
+→「ミステリーアイテム」→「ハンマー」または 「ロープ」
+入手したらスペースキーを押してください</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -459,12 +448,12 @@
   <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="73.25" customWidth="1"/>
+    <col min="2" max="2" width="73.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -509,7 +498,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -549,7 +538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="37.5">
+    <row r="12" spans="1:2" ht="36">
       <c r="A12">
         <v>10</v>
       </c>
@@ -557,7 +546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="56.25">
+    <row r="13" spans="1:2" ht="54">
       <c r="A13">
         <v>11</v>
       </c>
@@ -565,7 +554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="37.5">
+    <row r="14" spans="1:2" ht="36">
       <c r="A14">
         <v>12</v>
       </c>
@@ -573,20 +562,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="56.25">
+    <row r="15" spans="1:2" ht="54">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="37.5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="36">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -594,7 +583,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2">

--- a/Assets/Originals/Excels/System/SystemMessage.xlsx
+++ b/Assets/Originals/Excels/System/SystemMessage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyGameProduction\Mumei(No Name)\Assets\Originals\Excels\System\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\001.MyGameProductionBackUp\001.Unity\Mumei\GitFolders\Mumei\Assets\Originals\Excels\System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128C5F81-7331-4EFD-A063-08279AFC5ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A07953-F667-47A7-83D4-F780EF8D29C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="systemMessage" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -72,12 +83,6 @@
     <rPh sb="27" eb="28">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Pキーでポーズ画面を開く→「アイテム確認」
-→「ドキュメント」→「チュートリアル」
-入手したらスペースキーを押してください</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -114,10 +119,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Pキーでポーズ画面を開く→「アイテム確認」
+    <t>P or Zキーでポーズ画面を開く→「アイテム確認」
+→「ドキュメント」→「チュートリアル」
+入手したらスペースキーを押してください</t>
+  </si>
+  <si>
+    <t>P or Zキーでポーズ画面を開く→「アイテム確認」
 →「ミステリーアイテム」→「ハンマー」または 「ロープ」
 入手したらスペースキーを押してください</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -448,12 +457,12 @@
   <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="73.19921875" customWidth="1"/>
+    <col min="2" max="2" width="73.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -498,7 +507,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -538,7 +547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="36">
+    <row r="12" spans="1:2" ht="37.5">
       <c r="A12">
         <v>10</v>
       </c>
@@ -546,23 +555,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="54">
+    <row r="13" spans="1:2" ht="56.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="36">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="37.5">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="56.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -570,12 +579,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="36">
+    <row r="16" spans="1:2" ht="37.5">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -583,7 +592,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2">

--- a/Assets/Originals/Excels/System/SystemMessage.xlsx
+++ b/Assets/Originals/Excels/System/SystemMessage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\001.MyGameProductionBackUp\001.Unity\Mumei\GitFolders\Mumei\Assets\Originals\Excels\System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A07953-F667-47A7-83D4-F780EF8D29C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E278987E-6EC8-463D-A166-57B63BFDAFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,22 +75,6 @@
     <t>チュートリアルを開始します</t>
   </si>
   <si>
-    <t>左クリック…ドキュメント入手
-入手したらスペースキーを押してください</t>
-    <rPh sb="15" eb="17">
-      <t>ニュウシュ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>左クリック…ミステリーアイテム入手
-入手したらスペースキーを押してください</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>左クリック…オブジェクトに触れる
 ミステリーアイテムの画像を左クリックで選択</t>
     <rPh sb="27" eb="29">
@@ -119,14 +103,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>プレイヤーを動かして
+左クリックでドキュメント入手</t>
+    <rPh sb="6" eb="7">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>P or Zキーでポーズ画面を開く→「アイテム確認」
-→「ドキュメント」→「チュートリアル」
-入手したらスペースキーを押してください</t>
+→「ドキュメント」→「チュートリアル」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左クリック…ミステリーアイテム入手</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>P or Zキーでポーズ画面を開く→「アイテム確認」
-→「ミステリーアイテム」→「ハンマー」または 「ロープ」
-入手したらスペースキーを押してください</t>
+→「ミステリーアイテム」→「ハンマー」または 「ロープ」</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -457,7 +453,7 @@
   <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -507,7 +503,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -552,26 +548,26 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="56.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="37.5">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="37.5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="56.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="37.5">
       <c r="A15">
         <v>13</v>
       </c>
@@ -584,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -592,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2">

--- a/Assets/Originals/Excels/System/SystemMessage.xlsx
+++ b/Assets/Originals/Excels/System/SystemMessage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\001.MyGameProductionBackUp\001.Unity\Mumei\GitFolders\Mumei\Assets\Originals\Excels\System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E278987E-6EC8-463D-A166-57B63BFDAFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4691B9D2-B638-4113-ACF1-2A43A6BAACAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,16 +111,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>P or Zキーでポーズ画面を開く→「アイテム確認」
+    <t>左クリック…ミステリーアイテム入手</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P or Z or ESCキーでポーズ画面を開く→「アイテム確認」
 →「ドキュメント」→「チュートリアル」</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>左クリック…ミステリーアイテム入手</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P or Zキーでポーズ画面を開く→「アイテム確認」
+    <t>P or Z or ESCキーでポーズ画面を開く→「アイテム確認」
 →「ミステリーアイテム」→「ハンマー」または 「ロープ」</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -453,7 +453,7 @@
   <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="37.5">

--- a/Assets/Originals/Excels/System/SystemMessage.xlsx
+++ b/Assets/Originals/Excels/System/SystemMessage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\001.MyGameProductionBackUp\001.Unity\Mumei\GitFolders\Mumei\Assets\Originals\Excels\System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4691B9D2-B638-4113-ACF1-2A43A6BAACAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD93A66F-251B-4B19-89B7-299E06C4B06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,14 +75,6 @@
     <t>チュートリアルを開始します</t>
   </si>
   <si>
-    <t>左クリック…オブジェクトに触れる
-ミステリーアイテムの画像を左クリックで選択</t>
-    <rPh sb="27" eb="29">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　チュートリアルを終了します</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -122,6 +114,14 @@
   <si>
     <t>P or Z or ESCキーでポーズ画面を開く→「アイテム確認」
 →「ミステリーアイテム」→「ハンマー」または 「ロープ」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左クリック…裁きの青玉に触れる
+ミステリーアイテムの画像を左クリックで選択</t>
+    <rPh sb="26" eb="28">
+      <t>ガゾウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -453,7 +453,7 @@
   <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -503,7 +503,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="37.5">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="37.5">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="37.5">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2">
